--- a/RateCurveProject/src/Samples/data_france.xlsx
+++ b/RateCurveProject/src/Samples/data_france.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yves-mariesaliou/Documents/Cours/M2 IEF 272/C#/PROJET/RateCurveProject/src/Samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\Desktop\projet c#\CURVE_LIB\RateCurveProject\src\Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881F552-5FB0-C447-9990-8D8463B24F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48FB81-C09E-48B7-BAE3-A282BBA67513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{D41F1166-DA42-7E40-887F-20FB6D6AFF47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D41F1166-DA42-7E40-887F-20FB6D6AFF47}"/>
   </bookViews>
   <sheets>
     <sheet name="BOND" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOND!$A$1:$M$75</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1041,9 +1042,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1081,7 +1082,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1187,7 +1188,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1329,7 +1330,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1339,32 +1340,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F1D4E6-3A32-7F44-B19F-798565C66365}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="24.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="1"/>
     <col min="15" max="15" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="17" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>154</v>
       </c>
       <c r="F2" s="4">
-        <v>2.7397260273972603E-3</v>
+        <v>2.7397260273972599E-3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -1464,7 +1465,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -3764,7 +3765,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
@@ -5129,19 +5130,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>164</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>171</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>2.1404999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>176</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>2.1383000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>178</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>2.1684000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>180</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>2.2494999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>182</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>2.3367</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>184</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>2.4186000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>186</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>2.4931000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>2.5642999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>190</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>2.6318999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>192</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>2.6945000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>194</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>2.7515000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>196</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>2.8544</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>198</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>2.9672999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>200</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>3.0522999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>202</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>3.0703</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>204</v>
       </c>
